--- a/Sudoku/temp2.xlsx
+++ b/Sudoku/temp2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-60" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-80" yWindow="-60" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,80 +22,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="134">
-  <si>
-    <t xml:space="preserve"> [4, 9]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="124">
+  <si>
+    <t xml:space="preserve"> [3, 5, 6]</t>
+  </si>
+  <si>
+    <t>[7, 8]</t>
+  </si>
+  <si>
+    <t>[2, 4]</t>
+  </si>
+  <si>
+    <t>[2, 5]</t>
+  </si>
+  <si>
+    <t>[3, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[2, 3, 7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5, 7, 9]</t>
+  </si>
+  <si>
+    <t>[3, 7, 9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5, 6]</t>
+  </si>
+  <si>
+    <t>[6, 7, 9]</t>
+  </si>
+  <si>
+    <t>[6, 7, 9]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> [1, 5, 6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 5, 6]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3, 5, 6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3, 5, 6]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 2, 3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 2, 3]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6, 8, 9]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7, 8, 9]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7, 8]</t>
-  </si>
-  <si>
-    <t>[7, 8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2, 4]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2, 5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 6]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 4]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3, 5, 6, 7]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2, 3, 7]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2, 3, 6, 7]</t>
+    <t>[2, 6, 7]</t>
+  </si>
+  <si>
+    <t>[2, 6, 7]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -212,24 +181,10 @@
     <t>[2, 4, 5]</t>
   </si>
   <si>
-    <t>[4, 9]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> [4, 9]</t>
   </si>
   <si>
-    <t>[2, 7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[2, 5, 7, 8, 9]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [2,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2,5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[5, 7, 9]</t>
@@ -685,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -859,6 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
@@ -1214,10 +1170,10 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1228,74 +1184,74 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F2" s="7">
         <v>6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4">
         <v>7</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14" thickBot="1">
@@ -1306,64 +1262,64 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -1372,82 +1328,82 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14" thickBot="1">
       <c r="A7" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -1459,52 +1415,52 @@
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
@@ -1516,7 +1472,7 @@
     </row>
     <row r="10" spans="1:13" ht="14" thickBot="1">
       <c r="A10" s="15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -1528,53 +1484,53 @@
         <v>7</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="J11" s="9"/>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="J12" s="9"/>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1635,52 +1591,52 @@
         <v>2</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F17" s="22">
         <v>6</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G18" s="25">
         <v>7</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I18" s="26">
         <v>1</v>
@@ -1694,54 +1650,54 @@
         <v>1</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D20" s="27">
         <v>4</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G20" s="29">
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1749,62 +1705,62 @@
         <v>6</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H21" s="34">
         <v>5</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14" thickBot="1">
       <c r="A22" s="35" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="24" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B23" s="25">
         <v>4</v>
@@ -1816,42 +1772,42 @@
         <v>8</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E24" s="34">
         <v>3</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H24" s="34">
         <v>2</v>
@@ -1862,7 +1818,7 @@
     </row>
     <row r="25" spans="1:10" ht="14" thickBot="1">
       <c r="A25" s="40" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B25" s="36">
         <v>3</v>
@@ -1874,19 +1830,19 @@
         <v>7</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1903,51 +1859,51 @@
         <v>2</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F29" s="46">
         <v>6</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="47" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G30" s="34">
         <v>7</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I30" s="51">
         <v>1</v>
@@ -1961,54 +1917,54 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D32" s="27">
         <v>4</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G32" s="29">
         <v>8</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2016,62 +1972,62 @@
         <v>6</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H33" s="43">
         <v>5</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14" thickBot="1">
       <c r="A34" s="35" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="31" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B35" s="43">
         <v>4</v>
@@ -2083,42 +2039,42 @@
         <v>8</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="47" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E36" s="43">
         <v>3</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H36" s="43">
         <v>2</v>
@@ -2129,7 +2085,7 @@
     </row>
     <row r="37" spans="1:9" ht="14" thickBot="1">
       <c r="A37" s="35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B37" s="44">
         <v>3</v>
@@ -2141,19 +2097,19 @@
         <v>7</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I37" s="49" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2170,51 +2126,51 @@
         <v>2</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F41" s="7">
         <v>6</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="54" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G42" s="4">
         <v>7</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I42" s="8">
         <v>1</v>
@@ -2228,54 +2184,54 @@
         <v>1</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F43" s="57" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I43" s="57" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="52" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G44" s="2">
         <v>8</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2283,62 +2239,62 @@
         <v>6</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H45" s="4">
         <v>5</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14" thickBot="1">
       <c r="A46" s="56" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="54" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B47" s="55">
         <v>4</v>
@@ -2350,42 +2306,42 @@
         <v>8</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="54" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E48" s="55">
         <v>3</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G48" s="55" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H48" s="55">
         <v>2</v>
@@ -2396,7 +2352,7 @@
     </row>
     <row r="49" spans="1:9" ht="14" thickBot="1">
       <c r="A49" s="56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B49" s="58">
         <v>3</v>
@@ -2408,19 +2364,19 @@
         <v>7</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G49" s="58" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H49" s="58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I49" s="59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2437,51 +2393,51 @@
         <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F53" s="7">
         <v>6</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G54" s="4">
         <v>7</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I54" s="8">
         <v>1</v>
@@ -2495,54 +2451,54 @@
         <v>1</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D55" s="60" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="66" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D56" s="66">
         <v>4</v>
       </c>
       <c r="E56" s="64" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F56" s="67" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G56" s="64">
         <v>8</v>
       </c>
       <c r="H56" s="64" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I56" s="67" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2550,62 +2506,62 @@
         <v>6</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H57" s="4">
         <v>5</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14" thickBot="1">
       <c r="A58" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E58" s="63" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="60" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B59" s="61">
         <v>4</v>
@@ -2617,42 +2573,42 @@
         <v>8</v>
       </c>
       <c r="E59" s="61" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F59" s="65" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G59" s="61" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H59" s="61" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I59" s="65" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="60" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C60" s="61" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E60" s="4">
         <v>3</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H60" s="4">
         <v>2</v>
@@ -2663,7 +2619,7 @@
     </row>
     <row r="61" spans="1:9" ht="14" thickBot="1">
       <c r="A61" s="62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B61" s="63">
         <v>3</v>
@@ -2675,19 +2631,19 @@
         <v>7</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2706,51 +2662,51 @@
         <v>2</v>
       </c>
       <c r="C66" s="73" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D66" s="70" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E66" s="73" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F66" s="74">
         <v>6</v>
       </c>
       <c r="G66" s="73" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H66" s="73" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I66" s="74" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="71" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G67" s="4">
         <v>7</v>
       </c>
       <c r="H67" s="75" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I67" s="8">
         <v>1</v>
@@ -2764,54 +2720,54 @@
         <v>1</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H68" s="75" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="70" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D69" s="1">
         <v>4</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G69" s="73">
         <v>8</v>
       </c>
       <c r="H69" s="73" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I69" s="74" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2819,62 +2775,62 @@
         <v>6</v>
       </c>
       <c r="B70" s="75" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D70" s="71" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E70" s="75" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F70" s="77" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G70" s="75" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H70" s="75">
         <v>5</v>
       </c>
       <c r="I70" s="77" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14" thickBot="1">
       <c r="A71" s="72" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H71" s="76" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I71" s="78" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="71" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B72" s="4">
         <v>4</v>
@@ -2886,42 +2842,42 @@
         <v>8</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H72" s="75" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="71" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E73" s="4">
         <v>3</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H73" s="75">
         <v>2</v>
@@ -2932,7 +2888,7 @@
     </row>
     <row r="74" spans="1:9" ht="14" thickBot="1">
       <c r="A74" s="72" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B74" s="5">
         <v>3</v>
@@ -2944,19 +2900,19 @@
         <v>7</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H74" s="76" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2973,51 +2929,51 @@
         <v>2</v>
       </c>
       <c r="C79" s="84" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D79" s="80" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E79" s="84" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F79" s="86">
         <v>6</v>
       </c>
       <c r="G79" s="84" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H79" s="84" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I79" s="86" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="79" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D80" s="79" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F80" s="83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G80" s="4">
         <v>7</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I80" s="8">
         <v>1</v>
@@ -3031,54 +2987,54 @@
         <v>1</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D81" s="79" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E81" s="82" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F81" s="83" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="80" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B82" s="84" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C82" s="84" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D82" s="1">
         <v>4</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F82" s="86" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G82" s="2">
         <v>8</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3086,62 +3042,62 @@
         <v>6</v>
       </c>
       <c r="B83" s="82" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C83" s="82" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D83" s="79" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E83" s="82" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F83" s="83" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G83" s="82" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H83" s="82">
         <v>5</v>
       </c>
       <c r="I83" s="83" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14" thickBot="1">
       <c r="A84" s="81" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B84" s="85" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C84" s="85" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F84" s="87" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="79" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B85" s="4">
         <v>4</v>
@@ -3153,42 +3109,42 @@
         <v>8</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F85" s="83" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="79" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E86" s="4">
         <v>3</v>
       </c>
       <c r="F86" s="83" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H86" s="4">
         <v>2</v>
@@ -3199,7 +3155,7 @@
     </row>
     <row r="87" spans="1:9" ht="14" thickBot="1">
       <c r="A87" s="81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B87" s="5">
         <v>3</v>
@@ -3211,19 +3167,19 @@
         <v>7</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F87" s="87" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3240,51 +3196,51 @@
         <v>2</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D91" s="89" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F91" s="7">
         <v>6</v>
       </c>
       <c r="G91" s="95" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H91" s="95" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I91" s="96" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="90" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B92" s="93" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C92" s="93" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D92" s="90" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E92" s="93" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F92" s="94" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G92" s="93">
         <v>7</v>
       </c>
       <c r="H92" s="93" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I92" s="94">
         <v>1</v>
@@ -3298,54 +3254,54 @@
         <v>1</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D93" s="90" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G93" s="93" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H93" s="93" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I93" s="94" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D94" s="89">
         <v>4</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G94" s="95">
         <v>8</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3353,62 +3309,62 @@
         <v>6</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D95" s="90" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G95" s="93" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H95" s="4">
         <v>5</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14" thickBot="1">
       <c r="A96" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D96" s="88" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G96" s="91" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B97" s="4">
         <v>4</v>
@@ -3420,42 +3376,42 @@
         <v>8</v>
       </c>
       <c r="E97" s="93" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F97" s="94" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G97" s="93" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D98" s="90" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E98" s="93">
         <v>3</v>
       </c>
       <c r="F98" s="94" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G98" s="93" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H98" s="4">
         <v>2</v>
@@ -3466,7 +3422,7 @@
     </row>
     <row r="99" spans="1:9" ht="14" thickBot="1">
       <c r="A99" s="88" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B99" s="91">
         <v>3</v>
@@ -3478,19 +3434,19 @@
         <v>7</v>
       </c>
       <c r="E99" s="91" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F99" s="92" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G99" s="91" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H99" s="91" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I99" s="92" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3507,51 +3463,51 @@
         <v>2</v>
       </c>
       <c r="C105" s="98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D105" s="104" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F105" s="7">
         <v>6</v>
       </c>
       <c r="G105" s="98" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I105" s="100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C106" s="99" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D106" s="103" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G106" s="99">
         <v>7</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I106" s="101">
         <v>1</v>
@@ -3565,54 +3521,54 @@
         <v>1</v>
       </c>
       <c r="C107" s="99" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D107" s="103" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G107" s="99" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I107" s="101" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="104" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B108" s="98" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C108" s="98" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D108" s="104">
         <v>4</v>
       </c>
       <c r="E108" s="98" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F108" s="100" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G108" s="98">
         <v>8</v>
       </c>
       <c r="H108" s="98" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I108" s="100" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3620,62 +3576,62 @@
         <v>6</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C109" s="99" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D109" s="103" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G109" s="99" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H109" s="99">
         <v>5</v>
       </c>
       <c r="I109" s="101" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="14" thickBot="1">
       <c r="A110" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C110" s="97" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D110" s="105" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G110" s="97" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H110" s="97" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I110" s="102" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="103" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B111" s="99">
         <v>4</v>
@@ -3687,42 +3643,42 @@
         <v>8</v>
       </c>
       <c r="E111" s="99" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F111" s="101" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G111" s="99" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H111" s="99" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I111" s="101" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="103" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B112" s="99" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C112" s="99" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E112" s="99">
         <v>3</v>
       </c>
       <c r="F112" s="101" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G112" s="99" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H112" s="99">
         <v>2</v>
@@ -3733,7 +3689,7 @@
     </row>
     <row r="113" spans="1:10" ht="14" thickBot="1">
       <c r="A113" s="105" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B113" s="97">
         <v>3</v>
@@ -3745,19 +3701,19 @@
         <v>7</v>
       </c>
       <c r="E113" s="97" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F113" s="102" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G113" s="97" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H113" s="97" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I113" s="102" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3917,6 +3873,7 @@
       <c r="J127" s="9"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="42" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3958,51 +3915,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F1" s="7">
         <v>6</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G2" s="4">
         <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
@@ -4016,25 +3973,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4042,28 +3999,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>8</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4071,57 +4028,57 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H5" s="4">
         <v>5</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14" thickBot="1">
       <c r="A6" s="15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4138,19 +4095,19 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4158,22 +4115,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H8" s="4">
         <v>2</v>
@@ -4196,19 +4153,19 @@
         <v>7</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14" thickBot="1"/>
@@ -4220,51 +4177,51 @@
         <v>2</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D16" s="107" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7">
         <v>6</v>
       </c>
       <c r="G16" s="115" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H16" s="115" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I16" s="116" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="108" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G17" s="111">
         <v>7</v>
       </c>
       <c r="H17" s="111" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I17" s="112">
         <v>1</v>
@@ -4278,25 +4235,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G18" s="111" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H18" s="111" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I18" s="112" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4304,28 +4261,28 @@
         <v>1</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D19" s="107">
         <v>4</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G19" s="115">
         <v>8</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4333,57 +4290,57 @@
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D20" s="108" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G20" s="111" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H20" s="4">
         <v>5</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14" thickBot="1">
       <c r="A21" s="109" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G21" s="113" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4400,22 +4357,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="111" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F22" s="112" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G22" s="111" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H22" s="117" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I22" s="118" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4423,22 +4380,22 @@
         <v>7</v>
       </c>
       <c r="B23" s="111" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C23" s="111" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E23" s="111">
         <v>3</v>
       </c>
       <c r="F23" s="112" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G23" s="111" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H23" s="111">
         <v>2</v>
@@ -4461,19 +4418,19 @@
         <v>7</v>
       </c>
       <c r="E24" s="113" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F24" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="114" t="s">
         <v>21</v>
-      </c>
-      <c r="G24" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="114" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4516,25 +4473,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F1" s="7">
         <v>6</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4545,22 +4502,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G2" s="4">
         <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I2" s="8">
         <v>1</v>
@@ -4574,25 +4531,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4600,28 +4557,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>8</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4629,28 +4586,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H5" s="4">
         <v>5</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14" thickBot="1">
@@ -4658,28 +4615,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" s="15">
         <v>6</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4696,19 +4653,19 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4722,16 +4679,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H8" s="4">
         <v>2</v>
@@ -4754,19 +4711,19 @@
         <v>7</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" thickBot="1"/>
@@ -4778,25 +4735,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D13" s="130" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E13" s="120" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7">
         <v>6</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H13" s="125" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I13" s="127" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4807,22 +4764,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="123" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="122" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E14" s="123" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G14" s="123">
         <v>7</v>
       </c>
       <c r="H14" s="123" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I14" s="124">
         <v>1</v>
@@ -4836,25 +4793,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E15" s="123" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F15" s="124" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G15" s="123" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H15" s="123" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I15" s="124" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4862,28 +4819,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="125" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="129">
         <v>4</v>
       </c>
       <c r="E16" s="125" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F16" s="127" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G16" s="125">
         <v>8</v>
       </c>
       <c r="H16" s="125" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I16" s="127" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4891,28 +4848,28 @@
         <v>6</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H17" s="4">
         <v>5</v>
       </c>
       <c r="I17" s="124" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14" thickBot="1">
@@ -4920,28 +4877,28 @@
         <v>4</v>
       </c>
       <c r="B18" s="126" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18" s="15">
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H18" s="119" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I18" s="128" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4958,19 +4915,19 @@
         <v>8</v>
       </c>
       <c r="E19" s="123" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H19" s="123" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I19" s="124" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4984,16 +4941,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E20" s="4">
         <v>3</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H20" s="4">
         <v>2</v>
@@ -5016,19 +4973,19 @@
         <v>7</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="128" t="s">
         <v>20</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="128" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" thickBot="1"/>
@@ -5040,25 +4997,25 @@
         <v>2</v>
       </c>
       <c r="C25" s="131" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D25" s="134" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E25" s="131" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F25" s="135">
         <v>6</v>
       </c>
       <c r="G25" s="131" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H25" s="131" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I25" s="135" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5069,22 +5026,22 @@
         <v>6</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G26" s="4">
         <v>7</v>
       </c>
       <c r="H26" s="132" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I26" s="8">
         <v>1</v>
@@ -5098,25 +5055,25 @@
         <v>1</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H27" s="132" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5124,28 +5081,28 @@
         <v>1</v>
       </c>
       <c r="B28" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="D28" s="1">
         <v>4</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2">
         <v>8</v>
       </c>
       <c r="H28" s="131" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5153,28 +5110,28 @@
         <v>6</v>
       </c>
       <c r="B29" s="132" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H29" s="132">
         <v>5</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" thickBot="1">
@@ -5182,28 +5139,28 @@
         <v>4</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D30" s="15">
         <v>6</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H30" s="133" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5220,19 +5177,19 @@
         <v>8</v>
       </c>
       <c r="E31" s="132" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F31" s="137" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G31" s="132" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H31" s="132" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I31" s="137" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5246,16 +5203,16 @@
         <v>6</v>
       </c>
       <c r="D32" s="136" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E32" s="132">
         <v>3</v>
       </c>
       <c r="F32" s="137" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G32" s="132" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H32" s="132">
         <v>2</v>
@@ -5278,19 +5235,19 @@
         <v>7</v>
       </c>
       <c r="E33" s="119" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F33" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="138" t="s">
         <v>20</v>
-      </c>
-      <c r="G33" s="133" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="138" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14" thickBot="1"/>
@@ -5302,25 +5259,25 @@
         <v>2</v>
       </c>
       <c r="C37" s="140" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E37" s="140" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F37" s="7">
         <v>6</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5331,22 +5288,22 @@
         <v>6</v>
       </c>
       <c r="C38" s="141" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E38" s="141" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G38" s="4">
         <v>7</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I38" s="8">
         <v>1</v>
@@ -5360,25 +5317,25 @@
         <v>1</v>
       </c>
       <c r="C39" s="141" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D39" s="143" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E39" s="141" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F39" s="144" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G39" s="141" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H39" s="141" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I39" s="144" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5386,28 +5343,28 @@
         <v>1</v>
       </c>
       <c r="B40" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="D40" s="1">
         <v>4</v>
       </c>
       <c r="E40" s="140" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G40" s="2">
         <v>8</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5415,28 +5372,28 @@
         <v>6</v>
       </c>
       <c r="B41" s="141" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E41" s="141" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H41" s="4">
         <v>5</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14" thickBot="1">
@@ -5444,28 +5401,28 @@
         <v>4</v>
       </c>
       <c r="B42" s="142" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D42" s="15">
         <v>6</v>
       </c>
       <c r="E42" s="142" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -5482,19 +5439,19 @@
         <v>8</v>
       </c>
       <c r="E43" s="141" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F43" s="144" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -5508,16 +5465,16 @@
         <v>6</v>
       </c>
       <c r="D44" s="143" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E44" s="141">
         <v>3</v>
       </c>
       <c r="F44" s="144" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G44" s="141" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H44" s="4">
         <v>2</v>
@@ -5540,19 +5497,19 @@
         <v>7</v>
       </c>
       <c r="E45" s="142" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F45" s="146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="146" t="s">
         <v>20</v>
-      </c>
-      <c r="G45" s="142" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="142" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="146" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14" thickBot="1"/>
@@ -5564,25 +5521,25 @@
         <v>2</v>
       </c>
       <c r="C49" s="154" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D49" s="155" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E49" s="154" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F49" s="157">
         <v>6</v>
       </c>
       <c r="G49" s="154" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49" s="154" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I49" s="157" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5593,22 +5550,22 @@
         <v>6</v>
       </c>
       <c r="C50" s="150" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G50" s="4">
         <v>7</v>
       </c>
       <c r="H50" s="150" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I50" s="8">
         <v>1</v>
@@ -5622,25 +5579,25 @@
         <v>1</v>
       </c>
       <c r="C51" s="150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G51" s="117" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H51" s="150" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I51" s="118" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5648,28 +5605,28 @@
         <v>1</v>
       </c>
       <c r="B52" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="120" t="s">
-        <v>41</v>
-      </c>
       <c r="D52" s="1">
         <v>4</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G52" s="154">
         <v>8</v>
       </c>
       <c r="H52" s="154" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I52" s="157" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5677,28 +5634,28 @@
         <v>6</v>
       </c>
       <c r="B53" s="150" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C53" s="150" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D53" s="149" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E53" s="150" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F53" s="153" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G53" s="150" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H53" s="150">
         <v>5</v>
       </c>
       <c r="I53" s="153" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14" thickBot="1">
@@ -5706,28 +5663,28 @@
         <v>4</v>
       </c>
       <c r="B54" s="152" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C54" s="119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D54" s="15">
         <v>6</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G54" s="152" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H54" s="152" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I54" s="158" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5744,19 +5701,19 @@
         <v>8</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H55" s="150" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5770,16 +5727,16 @@
         <v>6</v>
       </c>
       <c r="D56" s="149" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E56" s="150">
         <v>3</v>
       </c>
       <c r="F56" s="153" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G56" s="150" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H56" s="150">
         <v>2</v>
@@ -5802,19 +5759,19 @@
         <v>7</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F57" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14" thickBot="1"/>
@@ -5826,25 +5783,25 @@
         <v>2</v>
       </c>
       <c r="C64" s="159" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D64" s="164" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E64" s="159" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F64" s="167">
         <v>6</v>
       </c>
       <c r="G64" s="159" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H64" s="159" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I64" s="167" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5855,22 +5812,22 @@
         <v>6</v>
       </c>
       <c r="C65" s="160" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D65" s="162" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E65" s="160" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F65" s="163" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G65" s="160">
         <v>7</v>
       </c>
       <c r="H65" s="160" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I65" s="163">
         <v>1</v>
@@ -5884,25 +5841,25 @@
         <v>1</v>
       </c>
       <c r="C66" s="160" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D66" s="162" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E66" s="160" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F66" s="163" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5910,28 +5867,28 @@
         <v>1</v>
       </c>
       <c r="B67" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="159" t="s">
-        <v>41</v>
-      </c>
       <c r="D67" s="164">
         <v>4</v>
       </c>
       <c r="E67" s="159" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F67" s="167" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G67" s="2">
         <v>8</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5939,28 +5896,28 @@
         <v>6</v>
       </c>
       <c r="B68" s="160" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C68" s="160" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D68" s="162" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E68" s="160" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F68" s="163" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G68" s="160" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H68" s="160">
         <v>5</v>
       </c>
       <c r="I68" s="163" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14" thickBot="1">
@@ -5968,28 +5925,28 @@
         <v>4</v>
       </c>
       <c r="B69" s="161" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C69" s="161" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="165">
+        <v>6</v>
+      </c>
+      <c r="E69" s="161" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="168" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="165">
-        <v>6</v>
-      </c>
-      <c r="E69" s="161" t="s">
+      <c r="H69" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="168" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="161" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" s="161" t="s">
-        <v>49</v>
-      </c>
       <c r="I69" s="168" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6006,19 +5963,19 @@
         <v>8</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F70" s="163" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6032,16 +5989,16 @@
         <v>6</v>
       </c>
       <c r="D71" s="162" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E71" s="160">
         <v>3</v>
       </c>
       <c r="F71" s="163" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G71" s="160" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H71" s="160">
         <v>2</v>
@@ -6064,19 +6021,19 @@
         <v>7</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F72" s="168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I72" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14" thickBot="1"/>
@@ -6088,25 +6045,25 @@
         <v>2</v>
       </c>
       <c r="C78" s="84" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D78" s="80" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F78" s="7">
         <v>6</v>
       </c>
       <c r="G78" s="84" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" s="120" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I78" s="86" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -6117,22 +6074,22 @@
         <v>6</v>
       </c>
       <c r="C79" s="82" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D79" s="79" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E79" s="82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F79" s="83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G79" s="82">
         <v>7</v>
       </c>
       <c r="H79" s="82" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I79" s="83">
         <v>1</v>
@@ -6146,25 +6103,25 @@
         <v>1</v>
       </c>
       <c r="C80" s="82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D80" s="79" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H80" s="117" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I80" s="83" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -6172,28 +6129,28 @@
         <v>1</v>
       </c>
       <c r="B81" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="84" t="s">
-        <v>41</v>
-      </c>
       <c r="D81" s="80">
         <v>4</v>
       </c>
       <c r="E81" s="84" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F81" s="86" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G81" s="84">
         <v>8</v>
       </c>
       <c r="H81" s="84" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I81" s="86" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -6201,28 +6158,28 @@
         <v>6</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C82" s="82" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D82" s="79" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G82" s="82" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H82" s="82">
         <v>5</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14" thickBot="1">
@@ -6230,28 +6187,28 @@
         <v>4</v>
       </c>
       <c r="B83" s="119" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C83" s="85" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D83" s="81">
         <v>6</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G83" s="85" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H83" s="85" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I83" s="87" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6268,19 +6225,19 @@
         <v>8</v>
       </c>
       <c r="E84" s="82" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F84" s="83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G84" s="82" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H84" s="82" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I84" s="83" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6294,16 +6251,16 @@
         <v>6</v>
       </c>
       <c r="D85" s="79" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E85" s="82">
         <v>3</v>
       </c>
       <c r="F85" s="83" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G85" s="82" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H85" s="82">
         <v>2</v>
@@ -6326,19 +6283,19 @@
         <v>7</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F86" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="87" t="s">
         <v>20</v>
-      </c>
-      <c r="G86" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" s="87" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14" thickBot="1"/>
@@ -6350,25 +6307,25 @@
         <v>2</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F91" s="7">
         <v>6</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6379,22 +6336,22 @@
         <v>6</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G92" s="4">
         <v>7</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I92" s="8">
         <v>1</v>
@@ -6408,25 +6365,25 @@
         <v>1</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6434,28 +6391,28 @@
         <v>1</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="D94" s="1">
         <v>4</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G94" s="2">
         <v>8</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6463,28 +6420,28 @@
         <v>6</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H95" s="4">
         <v>5</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14" thickBot="1">
@@ -6492,28 +6449,28 @@
         <v>4</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D96" s="6">
         <v>6</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6530,19 +6487,19 @@
         <v>8</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6556,16 +6513,16 @@
         <v>6</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E98" s="4">
         <v>3</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H98" s="4">
         <v>2</v>
@@ -6588,19 +6545,19 @@
         <v>7</v>
       </c>
       <c r="E99" s="97" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F99" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="102" t="s">
         <v>20</v>
-      </c>
-      <c r="G99" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="I99" s="102" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6626,8 +6583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6644,10 +6601,10 @@
       <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="2">
         <v>7</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
       <c r="E1" s="2">
@@ -6656,18 +6613,18 @@
       <c r="F1" s="7">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="11">
-        <v>8</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>38</v>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7">
+        <v>9</v>
       </c>
       <c r="J1">
         <f>SUM(A1:I1)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -6677,22 +6634,22 @@
       <c r="B2" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="4">
         <v>9</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4">
         <v>7</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="4">
         <v>3</v>
       </c>
       <c r="I2" s="8">
@@ -6710,30 +6667,30 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6741,32 +6698,32 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3</v>
       </c>
       <c r="G4" s="2">
         <v>8</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6774,10 +6731,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -6786,20 +6743,20 @@
         <v>56</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <v>5</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>67</v>
+      <c r="I5" s="8">
+        <v>4</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14" thickBot="1">
@@ -6807,32 +6764,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6">
         <v>6</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="173">
+        <v>1</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6849,19 +6806,19 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -6885,10 +6842,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H8" s="4">
         <v>2</v>
@@ -6915,23 +6872,23 @@
         <v>7</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6945,7 +6902,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -6957,19 +6914,19 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14" thickBot="1"/>
@@ -6989,21 +6946,21 @@
       <c r="E16" s="84">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
-        <v>6</v>
-      </c>
-      <c r="G16" s="84" t="s">
-        <v>55</v>
+      <c r="F16" s="86">
+        <v>6</v>
+      </c>
+      <c r="G16" s="84">
+        <v>4</v>
       </c>
       <c r="H16" s="84">
         <v>8</v>
       </c>
-      <c r="I16" s="86" t="s">
-        <v>38</v>
+      <c r="I16" s="86">
+        <v>9</v>
       </c>
       <c r="J16">
         <f>SUM(A16:I16)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7020,10 +6977,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G17" s="82">
         <v>7</v>
@@ -7053,23 +7010,23 @@
         <v>9</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="82" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="H18" s="82">
+        <v>6</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7077,32 +7034,32 @@
         <v>1</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D19" s="80">
         <v>4</v>
       </c>
       <c r="E19" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="86" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="F19" s="86">
+        <v>3</v>
       </c>
       <c r="G19" s="84">
         <v>8</v>
       </c>
       <c r="H19" s="84" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I19" s="86" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7110,10 +7067,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C20" s="82">
+        <v>3</v>
       </c>
       <c r="D20" s="79">
         <v>2</v>
@@ -7121,21 +7078,21 @@
       <c r="E20" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="82">
+        <v>1</v>
+      </c>
+      <c r="H20" s="82">
         <v>5</v>
       </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="83" t="s">
-        <v>67</v>
+      <c r="I20" s="83">
+        <v>4</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14" thickBot="1">
@@ -7143,32 +7100,32 @@
         <v>4</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D21" s="81">
         <v>6</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="87">
+        <v>1</v>
+      </c>
+      <c r="G21" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="87" t="s">
         <v>5</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="87" t="s">
-        <v>50</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7185,19 +7142,19 @@
         <v>8</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
@@ -7221,10 +7178,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H23" s="82">
         <v>2</v>
@@ -7251,23 +7208,23 @@
         <v>7</v>
       </c>
       <c r="E24" s="85" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="119" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="G24" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="85">
+        <v>1</v>
       </c>
       <c r="I24" s="87" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7281,7 +7238,7 @@
       </c>
       <c r="C25">
         <f t="shared" ref="C25" si="4">SUM(C16:C24)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25" si="5">SUM(D16:D24)</f>
@@ -7293,19 +7250,19 @@
       </c>
       <c r="F25">
         <f t="shared" ref="F25" si="7">SUM(F16:F24)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25" si="8">SUM(G16:G24)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <f t="shared" ref="H25" si="9">SUM(H16:H24)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25" si="10">SUM(I16:I24)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14" thickBot="1"/>
@@ -7352,14 +7309,14 @@
       <c r="C30" s="111">
         <v>9</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="108">
         <v>5</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G30" s="4">
         <v>7</v>
@@ -7385,23 +7342,23 @@
       <c r="C31" s="111">
         <v>4</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="108">
         <v>9</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H31" s="111">
         <v>6</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <f t="shared" si="11"/>
@@ -7413,32 +7370,32 @@
         <v>1</v>
       </c>
       <c r="B32" s="115" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="D32" s="107">
+        <v>4</v>
+      </c>
+      <c r="E32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="116">
+        <v>3</v>
       </c>
       <c r="G32" s="2">
         <v>8</v>
       </c>
       <c r="H32" s="115" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J32">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7446,7 +7403,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="111" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C33" s="111">
         <v>3</v>
@@ -7455,10 +7412,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="111" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F33" s="112" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G33" s="111">
         <v>1</v>
@@ -7479,32 +7436,32 @@
         <v>4</v>
       </c>
       <c r="B34" s="113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6">
-        <v>6</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="109">
+        <v>6</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="114">
+        <v>1</v>
       </c>
       <c r="G34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="H34" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="J34">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -7521,19 +7478,19 @@
         <v>8</v>
       </c>
       <c r="E35" s="111" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F35" s="112" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G35" s="111" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="111" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I35" s="112" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <f t="shared" si="11"/>
@@ -7557,10 +7514,10 @@
         <v>3</v>
       </c>
       <c r="F36" s="112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G36" s="111" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H36" s="111">
         <v>2</v>
@@ -7583,27 +7540,27 @@
       <c r="C37" s="113">
         <v>8</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="109">
         <v>7</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G37" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="113" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H37" s="113">
+        <v>1</v>
       </c>
       <c r="I37" s="114" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -7629,7 +7586,7 @@
       </c>
       <c r="F38">
         <f t="shared" ref="F38" si="16">SUM(F29:F37)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <f t="shared" ref="G38" si="17">SUM(G29:G37)</f>
@@ -7637,7 +7594,7 @@
       </c>
       <c r="H38">
         <f t="shared" ref="H38" si="18">SUM(H29:H37)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38">
         <f t="shared" ref="I38" si="19">SUM(I29:I37)</f>
@@ -7655,27 +7612,27 @@
       <c r="C42" s="98">
         <v>7</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="104">
         <v>3</v>
       </c>
       <c r="E42" s="98">
         <v>1</v>
       </c>
-      <c r="F42" s="7">
-        <v>6</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="11">
-        <v>8</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>38</v>
+      <c r="F42" s="100">
+        <v>6</v>
+      </c>
+      <c r="G42" s="98">
+        <v>4</v>
+      </c>
+      <c r="H42" s="98">
+        <v>8</v>
+      </c>
+      <c r="I42" s="100">
+        <v>9</v>
       </c>
       <c r="J42">
         <f>SUM(A42:I42)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7688,22 +7645,22 @@
       <c r="C43" s="99">
         <v>9</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="103">
         <v>5</v>
       </c>
       <c r="E43" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="99">
         <v>7</v>
       </c>
-      <c r="H43" s="9">
-        <v>3</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="H43" s="99">
+        <v>3</v>
+      </c>
+      <c r="I43" s="101">
         <v>1</v>
       </c>
       <c r="J43">
@@ -7725,23 +7682,23 @@
         <v>9</v>
       </c>
       <c r="E44" s="99" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F44" s="101" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G44" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="99" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="H44" s="99">
+        <v>6</v>
       </c>
       <c r="I44" s="101" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -7749,32 +7706,32 @@
         <v>1</v>
       </c>
       <c r="B45" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="1">
+        <v>29</v>
+      </c>
+      <c r="C45" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="104">
         <v>4</v>
       </c>
       <c r="E45" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="2">
-        <v>8</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="F45" s="100">
+        <v>3</v>
+      </c>
+      <c r="G45" s="98">
+        <v>8</v>
+      </c>
+      <c r="H45" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="100" t="s">
+        <v>13</v>
       </c>
       <c r="J45">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -7782,32 +7739,32 @@
         <v>6</v>
       </c>
       <c r="B46" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="13">
+        <v>56</v>
+      </c>
+      <c r="C46" s="99">
+        <v>3</v>
+      </c>
+      <c r="D46" s="103">
         <v>2</v>
       </c>
       <c r="E46" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="9" t="s">
+      <c r="F46" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="99">
+        <v>1</v>
+      </c>
+      <c r="H46" s="99">
         <v>5</v>
       </c>
-      <c r="H46" s="4">
-        <v>5</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>67</v>
+      <c r="I46" s="101">
+        <v>4</v>
       </c>
       <c r="J46">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14" thickBot="1">
@@ -7815,32 +7772,32 @@
         <v>4</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="6">
+        <v>30</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="105">
         <v>6</v>
       </c>
       <c r="E47" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="F47" s="102">
+        <v>1</v>
       </c>
       <c r="G47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="J47">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -7857,19 +7814,19 @@
         <v>8</v>
       </c>
       <c r="E48" s="99" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F48" s="101" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H48" s="99" t="s">
+        <v>69</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="J48">
         <f t="shared" si="20"/>
@@ -7893,10 +7850,10 @@
         <v>3</v>
       </c>
       <c r="F49" s="101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G49" s="99" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H49" s="99">
         <v>2</v>
@@ -7923,23 +7880,23 @@
         <v>7</v>
       </c>
       <c r="E50" s="97" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F50" s="102" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G50" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="97" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="H50" s="97">
+        <v>1</v>
       </c>
       <c r="I50" s="102" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="J50">
         <f t="shared" si="20"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -7953,7 +7910,7 @@
       </c>
       <c r="C51">
         <f t="shared" ref="C51" si="22">SUM(C42:C50)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D51">
         <f t="shared" ref="D51" si="23">SUM(D42:D50)</f>
@@ -7965,19 +7922,19 @@
       </c>
       <c r="F51">
         <f t="shared" ref="F51" si="25">SUM(F42:F50)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <f t="shared" ref="G51" si="26">SUM(G42:G50)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H51">
         <f t="shared" ref="H51" si="27">SUM(H42:H50)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I51">
         <f t="shared" ref="I51" si="28">SUM(I42:I50)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14" thickBot="1"/>
@@ -7988,7 +7945,7 @@
       <c r="B54" s="95">
         <v>2</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="95">
         <v>7</v>
       </c>
       <c r="D54" s="89">
@@ -8000,18 +7957,18 @@
       <c r="F54" s="7">
         <v>6</v>
       </c>
-      <c r="G54" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="11">
-        <v>8</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>38</v>
+      <c r="G54" s="2">
+        <v>4</v>
+      </c>
+      <c r="H54" s="2">
+        <v>8</v>
+      </c>
+      <c r="I54" s="96">
+        <v>9</v>
       </c>
       <c r="J54">
         <f>SUM(A54:I54)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -8021,30 +7978,30 @@
       <c r="B55" s="93">
         <v>6</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="93">
         <v>9</v>
       </c>
       <c r="D55" s="90">
         <v>5</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>11</v>
+      <c r="E55" s="9">
+        <v>4</v>
+      </c>
+      <c r="F55" s="14">
+        <v>2</v>
       </c>
       <c r="G55" s="4">
         <v>7</v>
       </c>
-      <c r="H55" s="9">
-        <v>3</v>
-      </c>
-      <c r="I55" s="8">
+      <c r="H55" s="4">
+        <v>3</v>
+      </c>
+      <c r="I55" s="94">
         <v>1</v>
       </c>
       <c r="J55">
         <f t="shared" ref="J55:J62" si="29">SUM(A55:I55)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14" thickBot="1">
@@ -8054,30 +8011,30 @@
       <c r="B56" s="93">
         <v>1</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="93">
         <v>4</v>
       </c>
       <c r="D56" s="90">
         <v>9</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>58</v>
+      <c r="E56" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="93">
+        <v>6</v>
+      </c>
+      <c r="I56" s="94" t="s">
+        <v>49</v>
       </c>
       <c r="J56">
         <f t="shared" si="29"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -8085,32 +8042,32 @@
         <v>1</v>
       </c>
       <c r="B57" s="95" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C57" s="95" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D57" s="89">
         <v>4</v>
       </c>
       <c r="E57" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="96" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="F57" s="96">
+        <v>3</v>
       </c>
       <c r="G57" s="95">
         <v>8</v>
       </c>
       <c r="H57" s="95" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I57" s="96" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="J57">
         <f t="shared" si="29"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -8118,10 +8075,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="93" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C58" s="93">
+        <v>3</v>
       </c>
       <c r="D58" s="90">
         <v>2</v>
@@ -8130,20 +8087,20 @@
         <v>56</v>
       </c>
       <c r="F58" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="93">
+        <v>1</v>
+      </c>
+      <c r="H58" s="93">
         <v>5</v>
       </c>
-      <c r="H58" s="4">
-        <v>5</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>67</v>
+      <c r="I58" s="94">
+        <v>4</v>
       </c>
       <c r="J58">
         <f t="shared" si="29"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14" thickBot="1">
@@ -8151,32 +8108,32 @@
         <v>4</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C59" s="91" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D59" s="88">
         <v>6</v>
       </c>
       <c r="E59" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="92" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="F59" s="92">
+        <v>1</v>
       </c>
       <c r="G59" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="92" t="s">
         <v>5</v>
-      </c>
-      <c r="H59" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="I59" s="92" t="s">
-        <v>50</v>
       </c>
       <c r="J59">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -8192,24 +8149,24 @@
       <c r="D60" s="90">
         <v>8</v>
       </c>
-      <c r="E60" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="94" t="s">
-        <v>40</v>
+      <c r="E60" s="93">
+        <v>6</v>
+      </c>
+      <c r="F60" s="94">
+        <v>9</v>
       </c>
       <c r="G60" s="93" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" s="93" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I60" s="94" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -8228,21 +8185,21 @@
       <c r="E61" s="4">
         <v>3</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>55</v>
+      <c r="F61" s="14">
+        <v>4</v>
+      </c>
+      <c r="G61" s="9">
+        <v>9</v>
       </c>
       <c r="H61" s="4">
         <v>2</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="94">
         <v>8</v>
       </c>
       <c r="J61">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14" thickBot="1">
@@ -8258,24 +8215,24 @@
       <c r="D62" s="88">
         <v>7</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>26</v>
+      <c r="E62" s="16">
+        <v>2</v>
+      </c>
+      <c r="F62" s="17">
+        <v>5</v>
+      </c>
+      <c r="G62" s="16">
+        <v>6</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+      <c r="I62" s="92" t="s">
+        <v>102</v>
       </c>
       <c r="J62">
         <f t="shared" si="29"/>
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -8289,7 +8246,7 @@
       </c>
       <c r="C63">
         <f t="shared" ref="C63" si="31">SUM(C54:C62)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D63">
         <f t="shared" ref="D63" si="32">SUM(D54:D62)</f>
@@ -8297,23 +8254,23 @@
       </c>
       <c r="E63">
         <f t="shared" ref="E63" si="33">SUM(E54:E62)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F63">
         <f t="shared" ref="F63" si="34">SUM(F54:F62)</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G63">
         <f t="shared" ref="G63" si="35">SUM(G54:G62)</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <f t="shared" ref="H63" si="36">SUM(H54:H62)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I63">
         <f t="shared" ref="I63" si="37">SUM(I54:I62)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14" thickBot="1"/>
@@ -8336,18 +8293,18 @@
       <c r="F67" s="116">
         <v>6</v>
       </c>
-      <c r="G67" s="115" t="s">
-        <v>0</v>
+      <c r="G67" s="115">
+        <v>4</v>
       </c>
       <c r="H67" s="115">
         <v>8</v>
       </c>
-      <c r="I67" s="116" t="s">
-        <v>54</v>
+      <c r="I67" s="116">
+        <v>9</v>
       </c>
       <c r="J67">
         <f>SUM(A67:I67)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -8360,14 +8317,14 @@
       <c r="C68" s="112">
         <v>9</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="3">
         <v>5</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G68" s="4">
         <v>7</v>
@@ -8393,27 +8350,27 @@
       <c r="C69" s="114">
         <v>4</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="3">
         <v>9</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H69" s="111" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="H69" s="111">
+        <v>6</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <f t="shared" si="38"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -8421,32 +8378,32 @@
         <v>1</v>
       </c>
       <c r="B70" s="115" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
         <v>4</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="F70" s="12">
+        <v>3</v>
       </c>
       <c r="G70" s="115">
         <v>8</v>
       </c>
       <c r="H70" s="115" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="I70" s="116" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="J70">
         <f t="shared" si="38"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -8454,10 +8411,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="111" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="111" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C71" s="111">
+        <v>3</v>
       </c>
       <c r="D71" s="108">
         <v>2</v>
@@ -8466,20 +8423,20 @@
         <v>56</v>
       </c>
       <c r="F71" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="G71" s="111" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="G71" s="111">
+        <v>1</v>
       </c>
       <c r="H71" s="111">
         <v>5</v>
       </c>
-      <c r="I71" s="112" t="s">
-        <v>67</v>
+      <c r="I71" s="112">
+        <v>4</v>
       </c>
       <c r="J71">
         <f t="shared" si="38"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14" thickBot="1">
@@ -8487,32 +8444,32 @@
         <v>4</v>
       </c>
       <c r="B72" s="113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D72" s="6">
         <v>6</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="F72" s="17">
+        <v>1</v>
       </c>
       <c r="G72" s="113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H72" s="113" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="I72" s="114" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J72">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -8529,19 +8486,19 @@
         <v>8</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H73" s="111" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <f t="shared" si="38"/>
@@ -8565,10 +8522,10 @@
         <v>3</v>
       </c>
       <c r="F74" s="112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G74" s="111" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H74" s="111">
         <v>2</v>
@@ -8595,23 +8552,23 @@
         <v>7</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="113" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="H75" s="113">
+        <v>1</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="J75">
         <f t="shared" si="38"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -8625,7 +8582,7 @@
       </c>
       <c r="C76">
         <f t="shared" ref="C76" si="40">SUM(C67:C75)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76" si="41">SUM(D67:D75)</f>
@@ -8637,19 +8594,19 @@
       </c>
       <c r="F76">
         <f t="shared" ref="F76" si="43">SUM(F67:F75)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G76">
         <f t="shared" ref="G76" si="44">SUM(G67:G75)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H76">
         <f t="shared" ref="H76" si="45">SUM(H67:H75)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I76">
         <f t="shared" ref="I76" si="46">SUM(I67:I75)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
